--- a/results/pvalue_SIDER_rare_pathway_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_pathway_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.283</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.371</t>
+          <t>0.083</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.002</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.654</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.007</t>
+          <t>2.299</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-10.601</t>
+          <t>-11.834</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-14.291</t>
+          <t>-13.119</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.002</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.273</t>
+          <t>8.352</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.393</t>
+          <t>7.503</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-11.807</t>
+          <t>-7.015</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-14.465</t>
+          <t>-9.028</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.543</t>
+          <t>6.993</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
